--- a/데이터_분석/pandas/통계_정리.xlsx
+++ b/데이터_분석/pandas/통계_정리.xlsx
@@ -1,59 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\data_study\데이터_분석\pandas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527F9F00-7ECD-41A3-8E5E-AF5517D5905B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.104.197.51428"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5820" xr2:uid="{101E6221-B225-4A1F-8169-3483B06C0C79}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>변수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>숫자 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>검정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>특이사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>범주 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>통계/시각화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>범주(독립)
 숫자(종속)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>신뢰구간 구하기 
@@ -62,12 +45,10 @@
 sm=stats.sem(v)    #표준오차
 stats.t.interval(0.95, n, mn, sm)
 --&gt; 95%  신뢰구간 -1.96~1.96</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>범주(종속)
 숫자(독립)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>min,max,mean,std, median,사분위수
@@ -101,9 +82,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t>stats.shapire</t>
     </r>
@@ -112,9 +90,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">(df.v)  
 </t>
@@ -124,9 +99,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t>stats.anderson</t>
     </r>
@@ -135,14 +107,10 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t>(df.v)
 귀무가설: 정규분포이다.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sns.barplot(x=V, y=v, data=df)  
@@ -172,15 +140,12 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t>①적합도(선호도) 검정: 변수1
 ②독립성 검정: 하나의 모집단에 범주형 2개
       :범주변수들 간 어떤 관계가 있는지
 ③동질성 검정: 2개 이상 모집단 2개 이상</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -192,9 +157,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t>df.corr(numeric_only=True)</t>
     </r>
@@ -203,14 +165,10 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
 판다스의 .corr() 함수</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -222,9 +180,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t>pd.crosstab</t>
     </r>
@@ -233,9 +188,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">(df.V1, df.V2)    #교차표
 </t>
@@ -245,9 +197,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t>stats.ch2_contingency</t>
     </r>
@@ -256,14 +205,10 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t>(cr) 
 귀무: 두 변수가 독립적이다(연관성 없음)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -276,9 +221,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t>stats.ttest_1samp</t>
     </r>
@@ -287,9 +229,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">(V_1, df.1.mean())
 </t>
@@ -299,9 +238,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t>stats.ttest_1samp</t>
     </r>
@@ -310,9 +246,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">(V_2, df.V.mean()) #귀무: 모평균과 동일
 &lt;정규성 검정&gt; --표준정규분포를 갖는지
@@ -323,9 +256,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t>stats.shapiro</t>
     </r>
@@ -334,9 +264,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">(V_1)
 </t>
@@ -346,9 +273,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t>stats.shapiro</t>
     </r>
@@ -357,9 +281,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">(V_2)  # 귀무: 등분산을 가진다
 &lt;등분산 검정&gt;  --같은 분산을 갖는지     #귀무: 갖는다
@@ -370,9 +291,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t>stats.bartett</t>
     </r>
@@ -381,9 +299,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">(V_1,V_2)  # 표본크기 크고 정규성 가진 데이터   
 </t>
@@ -393,9 +308,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t>stats.levene</t>
     </r>
@@ -404,9 +316,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">(V_1,V_2)  # 정규분포에 영향 안받음(중앙값)
 </t>
@@ -416,9 +325,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t>stats.fligner</t>
     </r>
@@ -427,13 +333,9 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t>(V_1,V_2)  # 정규분포 안따르는 데이터/중앙값</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -445,9 +347,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t>stats.ttest_ind</t>
     </r>
@@ -456,9 +355,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">(V_1,V_2, equal_var=False)
 귀무: 유의미한 평균 차이가 없다.
@@ -472,9 +368,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t>stats.mannwhitneyu</t>
     </r>
@@ -483,14 +376,10 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t>(V_1,V_2)
 귀무: 두 집단의 중앙값 차이가 없다.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -503,9 +392,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t>stats.f_oneway</t>
     </r>
@@ -514,15 +400,11 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t>('V_1','V_2','V_3')
 귀무: 차이가 없다
       f통계량 결과 2-3이상의 값을 가지면 차이가 있다</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>범주별 빈도수(value_counts)/ 범주별 비율
@@ -530,7 +412,6 @@
 sns.countplot(data=df, x='V') 
 * p=df.V.value_counts()
 plt.pie(p.values, label=p.index, autopc='%.2f%%')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -542,8 +423,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t>①사분위수 이용
 ITQ=Q3-Q1
@@ -556,9 +435,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -568,9 +444,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">zscore </t>
     </r>
@@ -579,15 +452,11 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
 z=np.abs(df.v -df.v.mean()/df.v.std()
 df2=df[z &lt;2.5] </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -600,9 +469,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t>sm.Logit</t>
     </r>
@@ -611,138 +477,732 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t>(df.V, df.v)
 result=model.fit()
 귀무: 해당 변수의 회귀계수가 0이다 
        --독립과 종속이 관련이 없다.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>숫자
 1,2,3…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>범주2(독립)
 숫자1(종속)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>범주3(독립)
 숫자1(종속)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sns.heatmap(df, vmin=-1, vmax=1, 
                annot=True)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>범주2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;독립표본 T검정&gt; 모집단이 서로 다를때 두 평균의 차이
+stats.ttest_ind(V_1,V_2, equal_var=False)
+귀무: 유의미한 평균 차이가 없다.
+      t통계량 결과 -2&gt; 또는 &gt;2이면 '차이가 크다'. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;독립표본 T검정&gt; 모집단이 서로 다를때 두 평균의 차이
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>stats.ttest_ind</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">(V_1,V_2, equal_var=False)
+귀무: 유의미한 평균 차이가 없다.
+      t통계량 결과 -2&gt; 또는 &gt;2이면 '차이가 크다'. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+&lt;Mann-Whitney U test 검정&gt; 중앙값 차이
+표본수가 적을때 비모수적인 분석// 평균비교X, 순위합검정
+stats.mannwhitneyu(V_1,V_2)
+귀무: 두 집단의 중앙값 차이가 없다.</t>
+  </si>
+  <si>
+    <t>비모수적인 분석
+&lt;Mann-Whitney U test 검정&gt; 중앙값 차이
+표본수가 적을때 // 평균비교X, 순위합검정
+stats.mannwhitneyu(V_1,V_2)
+귀무: 두 집단의 중앙값 차이가 없다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">비모수적인 분석
+&lt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">비모수적인 분석
+&lt;Kruskal-Walis test&gt;
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="26">
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="맑은 고딕"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -750,38 +1210,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="9" builtinId="11"/>
+    <cellStyle name="계산" xfId="17" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
+    <cellStyle name="메모" xfId="8" builtinId="10"/>
+    <cellStyle name="백분율" xfId="3" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="1" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="20" builtinId="25"/>
+    <cellStyle name="입력" xfId="15" builtinId="20"/>
+    <cellStyle name="제목" xfId="10" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="11" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="12" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="13" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="14" builtinId="19"/>
+    <cellStyle name="좋음" xfId="21" builtinId="26"/>
+    <cellStyle name="출력" xfId="16" builtinId="21"/>
+    <cellStyle name="통화" xfId="2" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="5" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="6" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1081,24 +1579,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8F047F-71F2-4FA6-B190-AE4A614EA7C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="37" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" style="2" width="9.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="1" width="37.00500107" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="1" width="46.00500107" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="1" width="37.88000107" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="18.750000" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1112,7 +1610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="123.750000" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1126,7 +1624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="87.000000" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1136,7 +1634,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="95.250000" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -1148,7 +1646,7 @@
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="52.500000" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
@@ -1160,7 +1658,7 @@
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="102.000000" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
@@ -1174,7 +1672,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="215.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="215.250000" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1188,7 +1686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="114.000000" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
@@ -1196,11 +1694,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="93.750000" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
@@ -1210,11 +1710,13 @@
       <c r="C9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
 </worksheet>
 </file>